--- a/#State Mapping Status.xlsx
+++ b/#State Mapping Status.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejacobson/Documents/SEARCH/LENS project/DHS-LENSgit/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="30760" yWindow="-1440" windowWidth="32980" windowHeight="16640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="SEARCH" sheetId="1" r:id="rId1"/>
@@ -17,20 +12,20 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="123">
   <si>
     <t>State</t>
   </si>
@@ -71,9 +66,6 @@
     <t>Walt Neverman/Katie Schuh</t>
   </si>
   <si>
-    <t>Lt. Charlie Hill</t>
-  </si>
-  <si>
     <t>Steve Hathaway</t>
   </si>
   <si>
@@ -86,12 +78,6 @@
     <t>Tim Struck</t>
   </si>
   <si>
-    <t>Tim believes that NM has a table. He is looking into this and will get back to Kate ASAP.</t>
-  </si>
-  <si>
-    <t>Hopefully</t>
-  </si>
-  <si>
     <t>Linda Fraccola, Ed Cabral</t>
   </si>
   <si>
@@ -390,12 +376,30 @@
   </si>
   <si>
     <t>only statute and NCIC code included in table (not very good mappings)</t>
+  </si>
+  <si>
+    <t>Found via research</t>
+  </si>
+  <si>
+    <t>Located Wisconsin DOJ statute table crosswalk to NCIC.pdf.  Includes Statute, Offense Code, Class, title, NCIC.  Cathy will upload to Github.</t>
+  </si>
+  <si>
+    <t>Spoke with Kelly Officer, and CJIS folks.  Submitted a written request to Michael Hawkins (CCH/LEDS Program Manager) for OR statute ot UCR coding.</t>
+  </si>
+  <si>
+    <t>Tim responded that NM DPS did not have a table. Cathy followed up with the Statistical Analysis Center; a consortium of agncies, including NM DPS, has created a common charge code table</t>
+  </si>
+  <si>
+    <t>Wrote to Captain Wilson requesting mapping artifacts</t>
+  </si>
+  <si>
+    <t>Lt. Charlie Hill/Capt. Wilson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -774,23 +778,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="27.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="96.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="96.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -822,9 +826,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -836,22 +840,22 @@
         <v>43105</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -863,25 +867,25 @@
         <v>43103</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -897,9 +901,9 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -911,22 +915,22 @@
         <v>43103</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -938,22 +942,22 @@
         <v>43130</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -969,9 +973,9 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -987,9 +991,9 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -1005,9 +1009,9 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -1019,25 +1023,25 @@
         <v>43104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -1053,9 +1057,9 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -1070,9 +1074,9 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -1084,24 +1088,24 @@
         <v>43133</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -1113,21 +1117,21 @@
         <v>43103</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -1139,21 +1143,21 @@
         <v>43104</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
@@ -1165,24 +1169,24 @@
         <v>43105</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -1194,21 +1198,21 @@
         <v>43109</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -1220,21 +1224,21 @@
         <v>43137</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -1249,9 +1253,9 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -1263,21 +1267,21 @@
         <v>43130</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
@@ -1292,9 +1296,9 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -1306,21 +1310,21 @@
         <v>43133</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
@@ -1332,24 +1336,24 @@
         <v>43107</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
@@ -1361,24 +1365,24 @@
         <v>43130</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
@@ -1390,21 +1394,21 @@
         <v>43108</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
@@ -1416,21 +1420,21 @@
         <v>43130</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -1442,21 +1446,21 @@
         <v>43131</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
@@ -1471,9 +1475,9 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -1488,9 +1492,9 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -1502,24 +1506,24 @@
         <v>43112</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
@@ -1531,24 +1535,24 @@
         <v>43130</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
@@ -1560,24 +1564,24 @@
         <v>43119</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -1593,9 +1597,9 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
@@ -1607,21 +1611,21 @@
         <v>43104</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
@@ -1633,21 +1637,21 @@
         <v>43109</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
@@ -1659,21 +1663,21 @@
         <v>43115</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -1685,21 +1689,21 @@
         <v>43112</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
@@ -1714,9 +1718,9 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>4</v>
@@ -1731,9 +1735,9 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
@@ -1745,24 +1749,24 @@
         <v>43103</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4</v>
@@ -1774,21 +1778,21 @@
         <v>43131</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
@@ -1803,9 +1807,9 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
@@ -1817,24 +1821,24 @@
         <v>43130</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
@@ -1846,21 +1850,21 @@
         <v>43104</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
@@ -1872,19 +1876,19 @@
         <v>43102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1894,12 +1898,12 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C47" s="3">
         <v>43112</v>
@@ -1910,17 +1914,17 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1929,12 +1933,12 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C49" s="3">
         <v>43111</v>
@@ -1947,15 +1951,15 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="J49" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C50" s="3">
         <v>43112</v>
@@ -1966,15 +1970,18 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C51" s="3">
         <v>43131</v>
@@ -1983,24 +1990,26 @@
         <v>3</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C52" s="3">
         <v>43112</v>
@@ -2011,15 +2020,18 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C53" s="3">
         <v>43112</v>
@@ -2032,18 +2044,18 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="2"/>
@@ -2052,12 +2064,12 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C55" s="3">
         <v>43112</v>
@@ -2075,12 +2087,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C56" s="3">
         <v>43112</v>
@@ -2091,11 +2103,16 @@
       <c r="E56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/#State Mapping Status.xlsx
+++ b/#State Mapping Status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30760" yWindow="-1440" windowWidth="32980" windowHeight="16640"/>
+    <workbookView xWindow="30380" yWindow="-2040" windowWidth="33660" windowHeight="20560"/>
   </bookViews>
   <sheets>
     <sheet name="SEARCH" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="139">
   <si>
     <t>State</t>
   </si>
@@ -107,9 +107,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
     <t>Mike Lesko</t>
   </si>
   <si>
-    <t xml:space="preserve">NCIC code </t>
-  </si>
-  <si>
     <t>Captain John Rattigan</t>
   </si>
   <si>
@@ -320,12 +314,6 @@
     <t>Leslie Moore</t>
   </si>
   <si>
-    <t>Dana Gotz</t>
-  </si>
-  <si>
-    <t>Patricia Zafke</t>
-  </si>
-  <si>
     <t>Bob Merwine</t>
   </si>
   <si>
@@ -353,9 +341,6 @@
     <t>Major David Flannian</t>
   </si>
   <si>
-    <t>interested in assistance with mapping</t>
-  </si>
-  <si>
     <t>Sam Clark</t>
   </si>
   <si>
@@ -390,13 +375,85 @@
   </si>
   <si>
     <t>only statute and NCIC code included in table (not very good mappings)</t>
+  </si>
+  <si>
+    <t>Matt Ruel</t>
+  </si>
+  <si>
+    <t>Andrew to contact</t>
+  </si>
+  <si>
+    <t>Jeff Wallin</t>
+  </si>
+  <si>
+    <t>Brad Truitt</t>
+  </si>
+  <si>
+    <t>Chad Mosteller</t>
+  </si>
+  <si>
+    <t>Rickeya Franklin</t>
+  </si>
+  <si>
+    <t>Brandon Gray</t>
+  </si>
+  <si>
+    <t>Jeff Kellett</t>
+  </si>
+  <si>
+    <t>Curt Wood</t>
+  </si>
+  <si>
+    <t>Lt. Col. Timothy Chung</t>
+  </si>
+  <si>
+    <t>Chris Andrist</t>
+  </si>
+  <si>
+    <t>Michael Lawlor</t>
+  </si>
+  <si>
+    <t>Lisa Seymour</t>
+  </si>
+  <si>
+    <t>Chris Young</t>
+  </si>
+  <si>
+    <t>Becki contacted Mannone Butler (SEARCH member) and she is following up on the request</t>
+  </si>
+  <si>
+    <t>Need to contact</t>
+  </si>
+  <si>
+    <t>Becki contacted on 3/13</t>
+  </si>
+  <si>
+    <t>Maping received after Becki followed up on 3/13</t>
+  </si>
+  <si>
+    <t>Becki followed up on 3/13 - no mapping available</t>
+  </si>
+  <si>
+    <t>Becki contacted on 3/13 - Mr. Wood is following up</t>
+  </si>
+  <si>
+    <t>need to create mapping</t>
+  </si>
+  <si>
+    <t>Dana Gotz/Patrici Zafke</t>
+  </si>
+  <si>
+    <t>interested in assistance with mapping - need to create mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Becki contacted on 3/13 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,12 +475,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -437,13 +488,37 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -455,12 +530,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -485,12 +562,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -774,7 +858,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -822,9 +906,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -844,14 +928,17 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -871,17 +958,17 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -894,12 +981,18 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
+      <c r="I4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -919,14 +1012,14 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -940,20 +1033,21 @@
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -966,12 +1060,18 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
+      <c r="I7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -984,12 +1084,18 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
+      <c r="I8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -1002,12 +1108,18 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
+      <c r="I9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -1027,17 +1139,17 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -1053,9 +1165,9 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -1067,12 +1179,18 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="H12" s="2"/>
+      <c r="I12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -1091,17 +1209,17 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -1115,19 +1233,20 @@
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -1141,19 +1260,20 @@
       <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
@@ -1172,17 +1292,17 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -1201,14 +1321,14 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -1222,19 +1342,20 @@
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -1246,12 +1367,18 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="H19" s="2"/>
+      <c r="I19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -1265,19 +1392,20 @@
       <c r="E20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
@@ -1289,12 +1417,18 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="H21" s="2"/>
+      <c r="I21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -1313,14 +1447,14 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
@@ -1339,17 +1473,14 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
@@ -1363,22 +1494,20 @@
       <c r="E24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
@@ -1397,14 +1526,14 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
@@ -1423,14 +1552,14 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -1449,14 +1578,14 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
@@ -1468,12 +1597,18 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="H28" s="2"/>
+      <c r="I28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -1481,16 +1616,28 @@
       <c r="C29" s="3">
         <v>43102</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="D29" s="3">
+        <v>43172</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H29" s="2"/>
+      <c r="I29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>132</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -1509,17 +1656,17 @@
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
@@ -1533,22 +1680,20 @@
       <c r="E31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
@@ -1567,17 +1712,17 @@
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -1585,17 +1730,26 @@
       <c r="C33" s="3">
         <v>43102</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="3">
+        <v>43172</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="J33" s="10"/>
+      <c r="I33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
@@ -1609,19 +1763,20 @@
       <c r="E34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
@@ -1635,19 +1790,20 @@
       <c r="E35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
@@ -1665,15 +1821,15 @@
         <v>22</v>
       </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="12" t="s">
-        <v>118</v>
+      <c r="I36" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -1692,14 +1848,14 @@
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
@@ -1711,12 +1867,18 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="H38" s="2"/>
+      <c r="I38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>4</v>
@@ -1728,12 +1890,18 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="H39" s="2"/>
+      <c r="I39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
@@ -1752,17 +1920,14 @@
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4</v>
@@ -1781,14 +1946,14 @@
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
@@ -1800,12 +1965,18 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="H42" s="2"/>
+      <c r="I42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
@@ -1819,22 +1990,20 @@
       <c r="E43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
@@ -1848,19 +2017,20 @@
       <c r="E44" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
@@ -1874,12 +2044,13 @@
       <c r="E45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -1894,12 +2065,12 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" s="3">
         <v>43112</v>
@@ -1912,15 +2083,18 @@
       <c r="I47" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="J47" s="12" t="s">
+        <v>129</v>
+      </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1931,10 +2105,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="3">
         <v>43111</v>
@@ -1952,10 +2126,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C50" s="3">
         <v>43112</v>
@@ -1971,10 +2145,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="3">
         <v>43131</v>
@@ -1997,10 +2171,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="3">
         <v>43112</v>
@@ -2016,10 +2190,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C53" s="3">
         <v>43112</v>
@@ -2040,10 +2214,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="2"/>
@@ -2054,10 +2228,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="3">
         <v>43112</v>
@@ -2077,10 +2251,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="3">
         <v>43112</v>

--- a/#State Mapping Status.xlsx
+++ b/#State Mapping Status.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="142">
   <si>
     <t>State</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Charlie Schaeffer</t>
   </si>
   <si>
-    <t>available online</t>
-  </si>
-  <si>
     <t>Eric Wiltanger</t>
   </si>
   <si>
@@ -422,9 +419,6 @@
     <t>Becki contacted Mannone Butler (SEARCH member) and she is following up on the request</t>
   </si>
   <si>
-    <t>Need to contact</t>
-  </si>
-  <si>
     <t>Becki contacted on 3/13</t>
   </si>
   <si>
@@ -447,13 +441,28 @@
   </si>
   <si>
     <t xml:space="preserve">Becki contacted on 3/13 </t>
+  </si>
+  <si>
+    <t>Mike contacted on 3/13</t>
+  </si>
+  <si>
+    <t>Mark to contact</t>
+  </si>
+  <si>
+    <t>need contact person</t>
+  </si>
+  <si>
+    <t>Mike contacted on 3/13, LtCol Chung assigned staff to fulfill the request</t>
+  </si>
+  <si>
+    <t>Mike contacted on 3/13 - no state mappings to NCIC codes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +511,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -530,14 +546,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -570,13 +587,17 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Warning Text" xfId="5" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -858,7 +879,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -928,10 +949,10 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -982,10 +1003,10 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1012,7 +1033,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1030,17 +1051,17 @@
       <c r="D6" s="3">
         <v>43130</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1061,10 +1082,10 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1085,10 +1106,10 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1109,10 +1130,10 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1141,13 +1162,10 @@
       <c r="I10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
@@ -1162,6 +1180,9 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
+      <c r="J11" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
@@ -1180,10 +1201,10 @@
       <c r="F12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1209,10 +1230,10 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1230,7 +1251,7 @@
       <c r="D14" s="3">
         <v>43103</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="2"/>
@@ -1239,7 +1260,7 @@
         <v>83</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1257,7 +1278,7 @@
       <c r="D15" s="3">
         <v>43104</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="2"/>
@@ -1266,7 +1287,7 @@
         <v>85</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1292,10 +1313,10 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1321,7 +1342,7 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1339,16 +1360,16 @@
       <c r="D18" s="3">
         <v>43137</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1368,10 +1389,10 @@
       <c r="F19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1389,16 +1410,16 @@
       <c r="D20" s="3">
         <v>43130</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1418,10 +1439,10 @@
       <c r="F21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1447,7 +1468,7 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1473,7 +1494,7 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1491,16 +1512,16 @@
       <c r="D24" s="3">
         <v>43130</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1526,7 +1547,7 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1552,7 +1573,7 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1578,7 +1599,7 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1593,15 +1614,19 @@
       <c r="C28" s="3">
         <v>43102</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="3">
+        <v>43173</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1627,10 +1652,10 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1656,10 +1681,10 @@
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1677,16 +1702,16 @@
       <c r="D31" s="3">
         <v>43130</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1712,10 +1737,10 @@
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -1733,16 +1758,16 @@
       <c r="D33" s="3">
         <v>43172</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -1760,16 +1785,16 @@
       <c r="D34" s="3">
         <v>43104</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -1787,16 +1812,16 @@
       <c r="D35" s="3">
         <v>43109</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -1822,7 +1847,7 @@
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -1848,7 +1873,7 @@
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -1868,10 +1893,10 @@
       <c r="F38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -1891,10 +1916,10 @@
       <c r="F39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -1946,7 +1971,7 @@
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -1966,10 +1991,10 @@
       <c r="F42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -1987,16 +2012,16 @@
       <c r="D43" s="3">
         <v>43130</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -2014,7 +2039,7 @@
       <c r="D44" s="3">
         <v>43104</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="2"/>
@@ -2023,7 +2048,7 @@
         <v>84</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -2041,16 +2066,16 @@
       <c r="D45" s="3">
         <v>43102</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -2084,7 +2109,7 @@
         <v>15</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>

--- a/#State Mapping Status.xlsx
+++ b/#State Mapping Status.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="144">
   <si>
     <t>State</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Steve Hathaway</t>
   </si>
   <si>
-    <t>Melanie Nathan</t>
-  </si>
-  <si>
     <t>Doesn't currently exist but LA looking to build mapping</t>
   </si>
   <si>
@@ -371,15 +368,9 @@
     <t>Eduardo Cancel-Maldonado</t>
   </si>
   <si>
-    <t>only statute and NCIC code included in table (not very good mappings)</t>
-  </si>
-  <si>
     <t>Matt Ruel</t>
   </si>
   <si>
-    <t>Andrew to contact</t>
-  </si>
-  <si>
     <t>Jeff Wallin</t>
   </si>
   <si>
@@ -416,9 +407,6 @@
     <t>Chris Young</t>
   </si>
   <si>
-    <t>Becki contacted Mannone Butler (SEARCH member) and she is following up on the request</t>
-  </si>
-  <si>
     <t>Becki contacted on 3/13</t>
   </si>
   <si>
@@ -449,13 +437,31 @@
     <t>Mark to contact</t>
   </si>
   <si>
-    <t>need contact person</t>
-  </si>
-  <si>
     <t>Mike contacted on 3/13, LtCol Chung assigned staff to fulfill the request</t>
   </si>
   <si>
     <t>Mike contacted on 3/13 - no state mappings to NCIC codes</t>
+  </si>
+  <si>
+    <t>Melanie Nathan/Mannone Butler</t>
+  </si>
+  <si>
+    <t>Cheryl Payton</t>
+  </si>
+  <si>
+    <t>Mike contacted on 3/15</t>
+  </si>
+  <si>
+    <t>3/15/18 Andrew talking to Matt</t>
+  </si>
+  <si>
+    <t>3/15/18 Andrew talking to VT CCH</t>
+  </si>
+  <si>
+    <t>only statute and NCIC code included in table (not very accurate mappings)</t>
+  </si>
+  <si>
+    <t>Becki contacted Mannone Butler (SEARCH member) and Ms. Butler is following up on the request</t>
   </si>
 </sst>
 </file>
@@ -879,7 +885,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -912,7 +918,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -929,7 +935,7 @@
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -941,25 +947,25 @@
         <v>43105</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -971,25 +977,25 @@
         <v>43103</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -1003,17 +1009,17 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -1025,22 +1031,22 @@
         <v>43103</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -1052,23 +1058,23 @@
         <v>43130</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -1082,17 +1088,17 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -1106,17 +1112,17 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -1130,17 +1136,17 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -1152,22 +1158,22 @@
         <v>43104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -1180,6 +1186,9 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
+      <c r="I11" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="J11" s="12" t="s">
         <v>139</v>
       </c>
@@ -1188,7 +1197,7 @@
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -1201,17 +1210,17 @@
       <c r="F12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -1223,24 +1232,24 @@
         <v>43133</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -1252,22 +1261,22 @@
         <v>43103</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -1279,22 +1288,22 @@
         <v>43104</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
@@ -1306,24 +1315,24 @@
         <v>43105</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -1335,21 +1344,21 @@
         <v>43109</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -1361,22 +1370,22 @@
         <v>43137</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -1389,17 +1398,17 @@
       <c r="F19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -1411,22 +1420,22 @@
         <v>43130</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
@@ -1439,17 +1448,17 @@
       <c r="F21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -1461,21 +1470,21 @@
         <v>43133</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
@@ -1487,21 +1496,21 @@
         <v>43107</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
@@ -1513,22 +1522,22 @@
         <v>43130</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
@@ -1540,21 +1549,21 @@
         <v>43108</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
@@ -1566,21 +1575,21 @@
         <v>43130</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -1592,21 +1601,21 @@
         <v>43131</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
@@ -1618,22 +1627,22 @@
         <v>43173</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -1645,24 +1654,24 @@
         <v>43172</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -1674,24 +1683,24 @@
         <v>43112</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
@@ -1703,22 +1712,22 @@
         <v>43130</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
@@ -1730,24 +1739,24 @@
         <v>43119</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -1759,22 +1768,22 @@
         <v>43172</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
@@ -1786,22 +1795,22 @@
         <v>43104</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
@@ -1813,22 +1822,22 @@
         <v>43109</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
@@ -1840,21 +1849,21 @@
         <v>43115</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -1866,21 +1875,21 @@
         <v>43112</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
@@ -1893,17 +1902,17 @@
       <c r="F38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>4</v>
@@ -1916,17 +1925,17 @@
       <c r="F39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
@@ -1938,21 +1947,21 @@
         <v>43103</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4</v>
@@ -1964,21 +1973,21 @@
         <v>43131</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
@@ -1991,17 +2000,17 @@
       <c r="F42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
@@ -2013,22 +2022,22 @@
         <v>43130</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
@@ -2040,22 +2049,22 @@
         <v>43104</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
@@ -2067,15 +2076,15 @@
         <v>43102</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -2092,10 +2101,10 @@
     </row>
     <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="3">
         <v>43112</v>
@@ -2106,20 +2115,20 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="4" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2130,10 +2139,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="3">
         <v>43111</v>
@@ -2146,15 +2155,15 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="J49" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="3">
         <v>43112</v>
@@ -2170,10 +2179,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="3">
         <v>43131</v>
@@ -2182,24 +2191,24 @@
         <v>3</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="3">
         <v>43112</v>
@@ -2215,10 +2224,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="3">
         <v>43112</v>
@@ -2231,18 +2240,18 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="2"/>
@@ -2253,10 +2262,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="3">
         <v>43112</v>
@@ -2276,10 +2285,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="3">
         <v>43112</v>

--- a/#State Mapping Status.xlsx
+++ b/#State Mapping Status.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="145">
   <si>
     <t>State</t>
   </si>
@@ -401,9 +401,6 @@
     <t>Michael Lawlor</t>
   </si>
   <si>
-    <t>Lisa Seymour</t>
-  </si>
-  <si>
     <t>Chris Young</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>Cheryl Payton</t>
   </si>
   <si>
-    <t>Mike contacted on 3/15</t>
-  </si>
-  <si>
     <t>3/15/18 Andrew talking to Matt</t>
   </si>
   <si>
@@ -462,6 +456,15 @@
   </si>
   <si>
     <t>Becki contacted Mannone Butler (SEARCH member) and Ms. Butler is following up on the request</t>
+  </si>
+  <si>
+    <t>Mike contacted on 3/15, need to create mapping</t>
+  </si>
+  <si>
+    <t>David Elwood</t>
+  </si>
+  <si>
+    <t>Mark conntaced on 3/13, Mr. Elwood responded with an example tool - 3/16 - Mike asked for tables</t>
   </si>
 </sst>
 </file>
@@ -885,7 +888,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -958,7 +961,7 @@
         <v>89</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1012,7 +1015,7 @@
         <v>120</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1067,7 +1070,7 @@
         <v>107</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1091,7 +1094,7 @@
         <v>121</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1115,7 +1118,7 @@
         <v>122</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1136,10 +1139,10 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="4" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1181,16 +1184,20 @@
       <c r="C11" s="3">
         <v>43102</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="3">
+        <v>43540</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1210,10 +1217,10 @@
       <c r="F12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1242,7 +1249,7 @@
         <v>104</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1269,7 +1276,7 @@
         <v>82</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1296,7 +1303,7 @@
         <v>84</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1378,7 +1385,7 @@
         <v>105</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1401,7 +1408,7 @@
         <v>112</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1428,7 +1435,7 @@
         <v>108</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1451,7 +1458,7 @@
         <v>119</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1503,7 +1510,7 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1530,7 +1537,7 @@
         <v>100</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1635,7 +1642,7 @@
         <v>118</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1664,7 +1671,7 @@
         <v>117</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1720,7 +1727,7 @@
         <v>93</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1776,7 +1783,7 @@
         <v>116</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -1803,7 +1810,7 @@
         <v>110</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -1830,7 +1837,7 @@
         <v>92</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -1905,7 +1912,7 @@
         <v>115</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -1928,7 +1935,7 @@
         <v>114</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -2003,7 +2010,7 @@
         <v>113</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -2030,7 +2037,7 @@
         <v>102</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -2057,7 +2064,7 @@
         <v>83</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -2084,7 +2091,7 @@
         <v>86</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -2115,10 +2122,10 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
